--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/부서명 인원.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/부서명 인원.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\엑셀마왕_예제\1. 입력수정\4. 필터정렬\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\4. 필터정렬\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D21D5B-04CE-45E4-849A-FE03546D40DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F47CC-A7A4-4799-A8A4-1004F426F8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21456" yWindow="4884" windowWidth="19680" windowHeight="15804" xr2:uid="{F80CFB2F-95E1-4CBC-81A5-02AA5A16ABA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{F80CFB2F-95E1-4CBC-81A5-02AA5A16ABA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,26 +598,26 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -628,7 +628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -637,7 +637,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -655,7 +655,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -673,7 +673,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -682,7 +682,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -691,7 +691,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
